--- a/MatchValues.xlsx
+++ b/MatchValues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-640" windowWidth="25120" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="159">
   <si>
     <t>NAME</t>
   </si>
@@ -31,16 +31,497 @@
   </si>
   <si>
     <t>AWIN</t>
+  </si>
+  <si>
+    <t>program_id</t>
+  </si>
+  <si>
+    <t>publisher_id</t>
+  </si>
+  <si>
+    <t>ad_space_id</t>
+  </si>
+  <si>
+    <t>ad_media_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>program_name</t>
+  </si>
+  <si>
+    <t>publisher_name</t>
+  </si>
+  <si>
+    <t>merchant_id</t>
+  </si>
+  <si>
+    <t>ps.name</t>
+  </si>
+  <si>
+    <t>TCR.status</t>
+  </si>
+  <si>
+    <t>TCR.sale_amount</t>
+  </si>
+  <si>
+    <t>TCR.commission_amount</t>
+  </si>
+  <si>
+    <t>TCR.count</t>
+  </si>
+  <si>
+    <t>TCR.click_date</t>
+  </si>
+  <si>
+    <t>TCR.trans_date</t>
+  </si>
+  <si>
+    <t>TCR.valid_date</t>
+  </si>
+  <si>
+    <t>TCR.click_ref</t>
+  </si>
+  <si>
+    <t>TCR.is_searchside_id</t>
+  </si>
+  <si>
+    <t>TCR.click_trhough_phrase</t>
+  </si>
+  <si>
+    <t>TCR.hide_details</t>
+  </si>
+  <si>
+    <t>TCR.platform</t>
+  </si>
+  <si>
+    <t>TCR.is_invoice_restricted</t>
+  </si>
+  <si>
+    <t>TCR.debter_level</t>
+  </si>
+  <si>
+    <t>TCR.invoice_paid</t>
+  </si>
+  <si>
+    <t>TCR.url</t>
+  </si>
+  <si>
+    <t>TCR.old_sale_amount</t>
+  </si>
+  <si>
+    <t>TCR.old_commission</t>
+  </si>
+  <si>
+    <t>TCR.device_name</t>
+  </si>
+  <si>
+    <t>TCR.payment_status</t>
+  </si>
+  <si>
+    <t>TCR.risk_level</t>
+  </si>
+  <si>
+    <t>TCR.type</t>
+  </si>
+  <si>
+    <t>M.id</t>
+  </si>
+  <si>
+    <t>M.program_name</t>
+  </si>
+  <si>
+    <t>TLPR.banner_id</t>
+  </si>
+  <si>
+    <t>TLPR.group_id</t>
+  </si>
+  <si>
+    <t>BG.group_name</t>
+  </si>
+  <si>
+    <t>BG.description</t>
+  </si>
+  <si>
+    <t>BT.name</t>
+  </si>
+  <si>
+    <t>is_productserve</t>
+  </si>
+  <si>
+    <t>pending_no</t>
+  </si>
+  <si>
+    <t>pending_comm</t>
+  </si>
+  <si>
+    <t>confirmed_no</t>
+  </si>
+  <si>
+    <t>confirmed_value</t>
+  </si>
+  <si>
+    <t>confirmed_comm</t>
+  </si>
+  <si>
+    <t>total_no</t>
+  </si>
+  <si>
+    <t>total_value</t>
+  </si>
+  <si>
+    <t>total_comm</t>
+  </si>
+  <si>
+    <t>declined_no</t>
+  </si>
+  <si>
+    <t>declined_value</t>
+  </si>
+  <si>
+    <t>declined_comm</t>
+  </si>
+  <si>
+    <t>impressions</t>
+  </si>
+  <si>
+    <t>clicks</t>
+  </si>
+  <si>
+    <t>pending_epc</t>
+  </si>
+  <si>
+    <t>pending_conversion_rate</t>
+  </si>
+  <si>
+    <t>partner.User Name.</t>
+  </si>
+  <si>
+    <t>adbox.adbox.adbox.</t>
+  </si>
+  <si>
+    <t>time.Day Name.</t>
+  </si>
+  <si>
+    <t>program.program.Prog Name</t>
+  </si>
+  <si>
+    <t>ad_space_url</t>
+  </si>
+  <si>
+    <t>time.Month Name.</t>
+  </si>
+  <si>
+    <t>month_key</t>
+  </si>
+  <si>
+    <t>day_key</t>
+  </si>
+  <si>
+    <t>partner.partner.url.</t>
+  </si>
+  <si>
+    <t>currency.ISOCode.ISOCode</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>currency.ISOCode.ISOCode.BRL</t>
+  </si>
+  <si>
+    <t>affiliation.affiliation_admedia.admedia key.</t>
+  </si>
+  <si>
+    <t>View Number</t>
+  </si>
+  <si>
+    <t>View Number TPV</t>
+  </si>
+  <si>
+    <t>Sale Number</t>
+  </si>
+  <si>
+    <t>Lead Number</t>
+  </si>
+  <si>
+    <t>Sale Number Confirmed</t>
+  </si>
+  <si>
+    <t>Lead Number Confirmed</t>
+  </si>
+  <si>
+    <t>Sale Number Rejected</t>
+  </si>
+  <si>
+    <t>Lead Number Rejected</t>
+  </si>
+  <si>
+    <t>Click Number</t>
+  </si>
+  <si>
+    <t>Commission Sum</t>
+  </si>
+  <si>
+    <t>Vlick Number</t>
+  </si>
+  <si>
+    <t>Constant Member</t>
+  </si>
+  <si>
+    <t>Adv Click Commission</t>
+  </si>
+  <si>
+    <t>Transaction Number Rejected</t>
+  </si>
+  <si>
+    <t>Transaction Commission Rejected</t>
+  </si>
+  <si>
+    <t>Transaction Number Open and Confirmed</t>
+  </si>
+  <si>
+    <t>Transaction Commission Open and Confirmed</t>
+  </si>
+  <si>
+    <t>WEBSITE_ID</t>
+  </si>
+  <si>
+    <t>PROG_ID</t>
+  </si>
+  <si>
+    <t>TCAT_ID</t>
+  </si>
+  <si>
+    <t>tcat_id</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>CURRENCY_ID</t>
+  </si>
+  <si>
+    <t>TIME_STAMP_DAY</t>
+  </si>
+  <si>
+    <t>tcat_name</t>
+  </si>
+  <si>
+    <t>TCAT_NAME</t>
+  </si>
+  <si>
+    <t>USER_LOGIN_NAME</t>
+  </si>
+  <si>
+    <t>TIME_STAMP_MONTH</t>
+  </si>
+  <si>
+    <t>LINK_ID</t>
+  </si>
+  <si>
+    <t>LINK_NAME</t>
+  </si>
+  <si>
+    <t>PPC_COUNT</t>
+  </si>
+  <si>
+    <t>PPC_COMMISSION</t>
+  </si>
+  <si>
+    <t>SUBA_PPC_COUNT</t>
+  </si>
+  <si>
+    <t>PPV_COUNT</t>
+  </si>
+  <si>
+    <t>TPV_COUNT</t>
+  </si>
+  <si>
+    <t>PPL_COUNT_APPROVED</t>
+  </si>
+  <si>
+    <t>PPL_COUNT_CONFIRMED</t>
+  </si>
+  <si>
+    <t>PPL_COUNT_OPEN</t>
+  </si>
+  <si>
+    <t>PPL_COUNT_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COUNT_APPROVED</t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COUNT_CONFIRMED</t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COUNT_OPEN</t>
+  </si>
+  <si>
+    <t>PPS_COUNT_APPROVED</t>
+  </si>
+  <si>
+    <t>PPS_COUNT_CONFIRMED</t>
+  </si>
+  <si>
+    <t>PPS_COUNT_OPEN</t>
+  </si>
+  <si>
+    <t>PPS_COUNT_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COUNT_APPROVED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COUNT_CONFIRMED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COUNT_OPEN</t>
+  </si>
+  <si>
+    <t>PPS_AMOUNT_TRACKED_APPROVED</t>
+  </si>
+  <si>
+    <t>PPS_AMOUNT_TRACKED_CONFIRMED</t>
+  </si>
+  <si>
+    <t>PPS_AMOUNT_TRACKED_OPEN</t>
+  </si>
+  <si>
+    <t>PPS_AMOUNT_TRACKED_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_AMOUNT_TRACKED_APPROVED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_AMOUNT_TRACKED_CONFIRMED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_AMOUNT_TRACKED_OPEN</t>
+  </si>
+  <si>
+    <t>PPS_COMMISSION_APPROVED</t>
+  </si>
+  <si>
+    <t>PPS_COMMISSION_CONFIRMED</t>
+  </si>
+  <si>
+    <t>PPS_COMMISSION_OPEN</t>
+  </si>
+  <si>
+    <t>PPS_COMMISSION_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COMMISSION_APPROVED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COMMISSION_CONFIRMED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COMMISSION_OPEN</t>
+  </si>
+  <si>
+    <t>PPL_COMMISSION_APPROVED</t>
+  </si>
+  <si>
+    <t>PPL_COMMISSION_CONFIRMED</t>
+  </si>
+  <si>
+    <t>PPL_COMMISSION_OPEN</t>
+  </si>
+  <si>
+    <t>PPL_COMMISSION_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COMMISSION_APPROVED</t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COMMISSION_CONFIRMED</t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COMMISSION_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COMMISSION_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPS_AMOUNT_TRACKED_REJECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS_AMOUNT_TRACKED_REJECTED </t>
+  </si>
+  <si>
+    <t>SUBA_PPS_COUNT_REJECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PPS_COUNT_REJECTED</t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COUNT_REJECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPL_COUNT_REJECTED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPL_COMMISSION_CONFIRMED </t>
+  </si>
+  <si>
+    <t>SUBA_PPL_COMMISSION_OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS_COUNT_CONFIRMED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPL_COUNT_CONFIRMED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS_COMMISSION_APPROVED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS_AMOUNT_TRACKED_APPROVED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS_COUNT_APPROVED </t>
+  </si>
+  <si>
+    <t>SUBA_PPC_COMMISSION</t>
+  </si>
+  <si>
+    <t>SUBA_PPV_COUNT</t>
+  </si>
+  <si>
+    <t>SUBA_TPV_COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PPL_COMMISSION_OPEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +544,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,13 +912,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -421,8 +940,781 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
